--- a/数据整理/stocks/A股/上证主板/603867-新化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603867-新化股份.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -537,56 +589,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603867-新化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603867-新化股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -498,6 +515,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603867-新化股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603867-新化股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -515,6 +532,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010656</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商均衡30混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,7 +1591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
